--- a/biology/Médecine/1138_en_santé_et_médecine/1138_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1138_en_santé_et_médecine/1138_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1138_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1138_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1138 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1138_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1138_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>« Un hôpital ou aumônerie qui port[e] le nom de saint Benoît » est attestée à Paris, rue des Thermes-du-Palais, puis des Mathurins-Saint-Jacques et aujourd'hui Du Sommerard, dans une charte du roi Louis VII[1].
-Fondation à Bath en Angleterre, par l'évêque Robert de Lewes (en), d'un petit hôpital situé près des sources chaudes et voué à l'entretien de douze lépreux[2].
-Vers 1138 : l'archidiacre William de St. Clare fonde à Northampton, dans le diocèse de Lincoln, en Angleterre, une aumônerie qu'il place sous le vocable de saint Jean (Hospital of St. John[3]).</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>« Un hôpital ou aumônerie qui port[e] le nom de saint Benoît » est attestée à Paris, rue des Thermes-du-Palais, puis des Mathurins-Saint-Jacques et aujourd'hui Du Sommerard, dans une charte du roi Louis VII.
+Fondation à Bath en Angleterre, par l'évêque Robert de Lewes (en), d'un petit hôpital situé près des sources chaudes et voué à l'entretien de douze lépreux.
+Vers 1138 : l'archidiacre William de St. Clare fonde à Northampton, dans le diocèse de Lincoln, en Angleterre, une aumônerie qu'il place sous le vocable de saint Jean (Hospital of St. John).</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1138_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1138_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Ibodo, médecin, cité dans une charte de Barthélemy de Jur, évêque de Laon[4].
-1137-1138 : fl. Azzon, maître en médecine, cité dans des actes concernant un certain Mathieu, de Péronne[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Ibodo, médecin, cité dans une charte de Barthélemy de Jur, évêque de Laon.
+1137-1138 : fl. Azzon, maître en médecine, cité dans des actes concernant un certain Mathieu, de Péronne.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1138_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1138_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>30 mars : Maïmonide (mort en 1204), philosophe et médecin juif andalou, médecin, à Damas, du fils de Saladin, Al-Afdhal, à la demande duquel il rédige la plupart de ses traités médicaux, dont le Traité sur l'asthme et la Guérison par l'esprit[5].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>30 mars : Maïmonide (mort en 1204), philosophe et médecin juif andalou, médecin, à Damas, du fils de Saladin, Al-Afdhal, à la demande duquel il rédige la plupart de ses traités médicaux, dont le Traité sur l'asthme et la Guérison par l'esprit.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1138_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1138_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,10 +622,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1138 ou 1139 : Avempace (né vers 1070), philosophe, mathématicien et médecin arabe[6],[7],[8].
-Vers 1138-1140 : Obizo (né à une date inconnue), médecin à la cour de Louis VI le Gros[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1138 ou 1139 : Avempace (né vers 1070), philosophe, mathématicien et médecin arabe.
+Vers 1138-1140 : Obizo (né à une date inconnue), médecin à la cour de Louis VI le Gros.
 </t>
         </is>
       </c>
